--- a/xlsx/亚洲太平洋经济合作组织_intext.xlsx
+++ b/xlsx/亚洲太平洋经济合作组织_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="442">
   <si>
     <t>亚洲太平洋经济合作组织</t>
   </si>
@@ -29,7 +29,7 @@
     <t>新加坡</t>
   </si>
   <si>
-    <t>政策_政策_美國_亚洲太平洋经济合作组织</t>
+    <t>政策_政策_美国_亚洲太平洋经济合作组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -119,37 +119,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E5%8F%B0%E5%8C%97</t>
   </si>
   <si>
-    <t>中華台北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -167,37 +167,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A4%AA%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>亞太地區</t>
+    <t>亚太地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>投資</t>
+    <t>投资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E5%86%8C%E5%95%86%E6%A0%87</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E6%AF%9B%E9%A1%8D</t>
   </si>
   <si>
-    <t>國內生產毛額</t>
+    <t>国内生产毛额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD</t>
@@ -233,39 +233,21 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0</t>
   </si>
   <si>
-    <t>新西兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>泰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
   </si>
   <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
@@ -287,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%92%BE</t>
   </si>
   <si>
-    <t>老撾</t>
+    <t>老挝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -305,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
+    <t>巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0</t>
@@ -323,25 +305,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E7%88%BE</t>
   </si>
   <si>
-    <t>厄瓜多爾</t>
+    <t>厄瓜多尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%87%91%E8%9E%8D%E9%A2%A8%E6%9A%B4</t>
   </si>
   <si>
-    <t>亞洲金融風暴</t>
+    <t>亚洲金融风暴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E6%80%BB%E7%90%86</t>
@@ -359,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>首爾</t>
+    <t>首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
@@ -395,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%B0%B7</t>
@@ -407,21 +389,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>布萊克島</t>
+    <t>布莱克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%82%E7%89%A9</t>
   </si>
   <si>
@@ -431,13 +410,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E8%AD%98</t>
   </si>
   <si>
-    <t>共識</t>
+    <t>共识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/APEC%E5%B3%B0%E4%BC%9A</t>
@@ -449,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>澳洲總理</t>
+    <t>澳洲总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E8%82%AF%C2%B7%E8%85%BE%E5%8D%9A</t>
@@ -473,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%96%AF%E6%B1%80%C2%B7%E6%9D%9C%E9%AD%AF%E5%A4%9A</t>
   </si>
   <si>
-    <t>賈斯汀·杜魯多</t>
+    <t>贾斯汀·杜鲁多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E6%80%BB%E7%BB%9F</t>
@@ -485,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9C%9C%E9%9B%AA%E5%85%92%C2%B7%E5%B7%B4%E5%88%87%E8%90%8A</t>
   </si>
   <si>
-    <t>蜜雪兒·巴切萊</t>
+    <t>蜜雪儿·巴切莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%B8%BB%E5%B8%AD</t>
@@ -497,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E8%BF%91%E5%B9%B3</t>
   </si>
   <si>
-    <t>習近平</t>
+    <t>习近平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
-    <t>中國香港</t>
+    <t>中国香港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%AB%E8%A1%8C%E6%94%BF%E5%8C%BA%E8%A1%8C%E6%94%BF%E9%95%BF%E5%AE%98</t>
@@ -515,31 +494,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E9%84%AD%E6%9C%88%E5%A8%A5</t>
   </si>
   <si>
-    <t>林鄭月娥</t>
+    <t>林郑月娥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E7%A7%91%C2%B7%E7%B6%AD%E5%A4%9A%E5%A4%9A</t>
   </si>
   <si>
-    <t>佐科·維多多</t>
+    <t>佐科·维多多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%A7%E9%96%A3%E7%B8%BD%E7%90%86%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>日本內閣總理大臣</t>
+    <t>日本内阁总理大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%80%8D%E6%99%89%E4%B8%89</t>
   </si>
   <si>
-    <t>安倍晉三</t>
+    <t>安倍晋三</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
-    <t>馬來西亞首相</t>
+    <t>马来西亚首相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%90%89%C2%B7%E9%98%BF%E9%83%BD%E6%8B%89%E8%90%A8</t>
@@ -557,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E8%BE%9B%E9%81%94%C2%B7%E9%98%BF%E5%BE%B7%E6%81%A9</t>
   </si>
   <si>
-    <t>傑辛達·阿德恩</t>
+    <t>杰辛达·阿德恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%A5%A5%E5%B0%BC%E5%B0%94</t>
@@ -593,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E9%A1%AF%E9%BE%8D</t>
   </si>
   <si>
-    <t>李顯龍</t>
+    <t>李显龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%9C%A8%E5%AF%85</t>
@@ -617,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納德·川普</t>
+    <t>唐纳德·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD%E4%B8%BB%E5%B8%AD</t>
@@ -635,19 +614,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%81%94%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發達國家</t>
+    <t>发达国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
+    <t>发展中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%80%A7</t>
   </si>
   <si>
-    <t>開放性</t>
+    <t>开放性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E6%9C%8D</t>
@@ -659,19 +638,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%A0%98%E5%B0%8E%E4%BA%BA%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國領導人列表</t>
+    <t>各国领导人列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A3%9D</t>
   </si>
   <si>
-    <t>西裝</t>
+    <t>西装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%B1%E8%A3%9D</t>
   </si>
   <si>
-    <t>中山裝</t>
+    <t>中山装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -683,13 +662,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A4%AA%E7%B6%93%E5%90%88%E7%B5%84%E7%B9%94%E5%95%86%E5%8B%99%E6%97%85%E9%81%8A%E8%AD%89</t>
   </si>
   <si>
-    <t>亞太經合組織商務旅遊證</t>
+    <t>亚太经合组织商务旅游证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%BB%E6%AC%8A%E7%A7%BB%E4%BA%A4</t>
   </si>
   <si>
-    <t>香港主權移交</t>
+    <t>香港主权移交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -725,45 +704,33 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>經濟體</t>
+    <t>经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>領導人</t>
+    <t>领导人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9C%9C%E9%9B%AA%E5%85%92%C2%B7%E5%B7%B4%E8%88%8D%E8%90%8A</t>
   </si>
   <si>
-    <t>蜜雪兒·巴舍萊</t>
+    <t>蜜雪儿·巴舍莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E8%BF%91%E5%B9%B3</t>
   </si>
   <si>
-    <t>习近平</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%80%8D%E6%99%8B%E4%B8%89</t>
   </si>
   <si>
-    <t>安倍晋三</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E9%87%8C%E5%85%8B%C2%B7%E5%9F%B9%E5%B0%BC%E4%BA%9A%C2%B7%E6%B6%85%E6%89%98</t>
   </si>
   <si>
@@ -773,9 +740,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%98%BE%E9%BE%99</t>
   </si>
   <si>
-    <t>李显龙</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E8%8B%B1%E6%96%87</t>
   </si>
   <si>
@@ -785,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國總統</t>
+    <t>中华民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89</t>
@@ -803,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9_(%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82)</t>
   </si>
   <si>
-    <t>超國家主義 (國際關係)</t>
+    <t>超国家主义 (国际关系)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
@@ -821,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>政府間主義</t>
+    <t>政府间主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
@@ -839,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AB%96</t>
   </si>
   <si>
-    <t>民主和平論</t>
+    <t>民主和平论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>價值觀外交</t>
+    <t>价值观外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%B8%9D%E5%9B%BD</t>
@@ -869,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>全球主義</t>
+    <t>全球主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%84%E7%BB%87</t>
@@ -899,9 +863,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
-    <t>世界贸易组织</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
@@ -923,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
+    <t>国际标准化组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
@@ -959,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>突厥議會</t>
+    <t>突厥议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AE%BE%E4%BB%B2%E8%A3%81%E6%B3%95%E9%99%A2</t>
@@ -1007,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82%E7%89%B9%E5%88%AB%E6%B3%95%E5%BA%AD</t>
@@ -1073,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -1091,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲委員會</t>
+    <t>欧洲委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
@@ -1145,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E7%B5%B1%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>中美洲統合體</t>
+    <t>中美洲统合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -1163,13 +1124,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9F%BA%E7%A1%80%E8%AE%BE%E6%96%BD%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
@@ -1223,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E5%9F%BA%E6%9C%AC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>歐洲聯盟基本條約</t>
+    <t>欧洲联盟基本条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E6%B3%95%E5%BE%8B</t>
@@ -1235,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>巴黎協議</t>
+    <t>巴黎协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%81%94%E7%9B%9F</t>
@@ -1259,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E4%BA%9E%E5%85%B1%E6%A6%AE%E5%9C%88</t>
   </si>
   <si>
-    <t>大東亞共榮圈</t>
+    <t>大东亚共荣圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BA%92%E5%8A%A9%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1295,19 +1256,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%85%E5%B7%B4%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>歐羅巴合眾國</t>
+    <t>欧罗巴合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>東亞共同體</t>
+    <t>东亚共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>中華聯邦</t>
+    <t>中华联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BA%A2%E5%8D%81%E5%AD%97%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E8%BF%90%E5%8A%A8</t>
@@ -1349,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1361,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1373,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2765,7 +2726,7 @@
         <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2791,10 +2752,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -2820,10 +2781,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2849,10 +2810,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2878,10 +2839,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2907,10 +2868,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2936,10 +2897,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -2965,10 +2926,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2994,10 +2955,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3023,10 +2984,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3052,10 +3013,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3081,10 +3042,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3110,10 +3071,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3139,10 +3100,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3168,10 +3129,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3197,10 +3158,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3226,10 +3187,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3255,10 +3216,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3284,10 +3245,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3313,10 +3274,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3342,10 +3303,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3371,10 +3332,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3400,10 +3361,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>13</v>
@@ -3429,10 +3390,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>28</v>
@@ -3458,10 +3419,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>14</v>
@@ -3487,10 +3448,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3516,10 +3477,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3545,10 +3506,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3574,10 +3535,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3603,10 +3564,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3632,10 +3593,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3661,10 +3622,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3690,10 +3651,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3719,10 +3680,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3748,10 +3709,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3777,10 +3738,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3806,10 +3767,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G72" t="n">
         <v>6</v>
@@ -3835,10 +3796,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3864,10 +3825,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3893,10 +3854,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3922,10 +3883,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3951,10 +3912,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>8</v>
@@ -3980,10 +3941,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4009,10 +3970,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4038,10 +3999,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4067,10 +4028,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4096,10 +4057,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4125,10 +4086,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4154,10 +4115,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4183,10 +4144,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4212,10 +4173,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4241,10 +4202,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4270,10 +4231,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4299,10 +4260,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4328,10 +4289,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4357,10 +4318,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4386,10 +4347,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4415,10 +4376,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4444,10 +4405,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4473,10 +4434,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4502,10 +4463,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4531,10 +4492,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4560,10 +4521,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4589,10 +4550,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4618,10 +4579,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4647,10 +4608,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4676,10 +4637,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4705,10 +4666,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4734,10 +4695,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4763,10 +4724,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4792,10 +4753,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4821,10 +4782,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4850,10 +4811,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4879,10 +4840,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4908,10 +4869,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4937,10 +4898,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4966,10 +4927,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4995,10 +4956,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5024,10 +4985,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5053,10 +5014,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5082,10 +5043,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5111,10 +5072,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>11</v>
@@ -5227,10 +5188,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5256,10 +5217,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5285,10 +5246,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5314,10 +5275,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -5343,10 +5304,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F125" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5372,10 +5333,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F126" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5401,10 +5362,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F127" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5430,10 +5391,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5459,10 +5420,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5488,10 +5449,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F130" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5517,10 +5478,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5546,10 +5507,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F132" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5575,10 +5536,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5604,10 +5565,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F134" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5633,10 +5594,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F135" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5662,10 +5623,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F136" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5691,10 +5652,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F137" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5720,10 +5681,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F138" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5749,10 +5710,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5778,10 +5739,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F140" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5807,10 +5768,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F141" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5836,10 +5797,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F142" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5865,10 +5826,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F143" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5894,10 +5855,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F144" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5923,10 +5884,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F145" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5952,10 +5913,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F146" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5981,10 +5942,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F147" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6010,10 +5971,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F148" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6039,10 +6000,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F149" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6068,10 +6029,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F150" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6097,10 +6058,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F151" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6126,10 +6087,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F152" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6155,10 +6116,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F153" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6184,10 +6145,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F154" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6213,10 +6174,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F155" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6242,10 +6203,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F156" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6271,10 +6232,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F157" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -6300,10 +6261,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F158" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6329,10 +6290,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F159" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -6358,10 +6319,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F160" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6387,10 +6348,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F161" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6416,10 +6377,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F162" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6445,10 +6406,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F163" t="s">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6474,10 +6435,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F164" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6503,10 +6464,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F165" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6532,10 +6493,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F166" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6561,10 +6522,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F167" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6590,10 +6551,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F168" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6619,10 +6580,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F169" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6648,10 +6609,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="F170" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6677,10 +6638,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F171" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6706,10 +6667,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F172" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6735,10 +6696,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F173" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6764,10 +6725,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F174" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6793,10 +6754,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="F175" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6822,10 +6783,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="F176" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6851,10 +6812,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F177" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6880,10 +6841,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F178" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6909,10 +6870,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="F179" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6938,10 +6899,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="F180" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6967,10 +6928,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="F181" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6996,10 +6957,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="F182" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7025,10 +6986,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F183" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7054,10 +7015,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F184" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7083,10 +7044,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="F185" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7112,10 +7073,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F186" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7141,10 +7102,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="F187" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7170,10 +7131,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="F188" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7199,10 +7160,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F189" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7228,10 +7189,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="F190" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7257,10 +7218,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F191" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7286,10 +7247,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F192" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7315,10 +7276,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="F193" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7344,10 +7305,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F194" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7373,10 +7334,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F195" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7402,10 +7363,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="F196" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7431,10 +7392,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7460,10 +7421,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F198" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7489,10 +7450,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F199" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7518,10 +7479,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F200" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7547,10 +7508,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F201" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7576,10 +7537,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F202" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7605,10 +7566,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F203" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7634,10 +7595,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F204" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7663,10 +7624,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="F205" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7692,10 +7653,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F206" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7721,10 +7682,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F207" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7750,10 +7711,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F208" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7779,10 +7740,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F209" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7808,10 +7769,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F210" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -7837,10 +7798,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F211" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7866,10 +7827,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F212" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7895,10 +7856,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="F213" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7924,10 +7885,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="F214" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7953,10 +7914,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F215" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7982,10 +7943,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8011,10 +7972,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8040,10 +8001,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8069,10 +8030,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8098,10 +8059,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8127,10 +8088,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8156,10 +8117,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8185,10 +8146,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8214,10 +8175,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8243,10 +8204,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F225" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8272,10 +8233,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F226" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8301,10 +8262,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F227" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8330,10 +8291,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F228" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8359,10 +8320,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F229" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8388,10 +8349,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8417,10 +8378,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8446,10 +8407,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F232" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8475,10 +8436,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F233" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8504,10 +8465,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8533,10 +8494,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8562,10 +8523,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F236" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8591,10 +8552,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="F237" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8620,10 +8581,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="F238" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -8649,10 +8610,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="F239" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8678,10 +8639,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="F240" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8707,10 +8668,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="F241" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8736,10 +8697,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="F242" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8765,10 +8726,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F243" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>

--- a/xlsx/亚洲太平洋经济合作组织_intext.xlsx
+++ b/xlsx/亚洲太平洋经济合作组织_intext.xlsx
@@ -29,7 +29,7 @@
     <t>新加坡</t>
   </si>
   <si>
-    <t>政策_政策_美國_亚洲太平洋经济合作组织</t>
+    <t>体育运动_体育运动_欧洲议会_亚洲太平洋经济合作组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -5929,7 +5929,7 @@
         <v>258</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -5958,7 +5958,7 @@
         <v>260</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
